--- a/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
+++ b/Companies/Bank - Private/Axis Bank Ltd/Pruned_Excel/9_Sep23_Sep24.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '23</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '23</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '24</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '24</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '24</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '24</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '24</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '23</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '23</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>21,256.31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>22,364.46</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23,351.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23,718.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>24,261.13</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>23,718.80</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23,351.15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22,364.46</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>21,256.31</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>24261.13</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>21256.31</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>22990.37</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>4,799.81</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5,089.40</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5,338.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5,580.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>5,443.54</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5,580.83</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5,338.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5,089.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4,799.81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>5580.83</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>4799.81</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>5250.39</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>206.20</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>146.48</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>256.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>295.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>351.07</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>295.33</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>256.48</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>146.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>206.20</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>351.07</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>146.48</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>251.112</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>363.86</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>360.80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>278.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>465.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>364.12</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>465.77</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>278.54</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>360.80</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>363.86</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>465.77</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>278.54</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>366.6180000000001</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>5,034.08</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,554.82</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6,765.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>5,783.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>6,721.85</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5,783.49</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6,765.79</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5,554.82</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5,034.08</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>6765.79</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>5034.08</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>5972.005999999999</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>14,311.62</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15,428.99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16,135.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16,612.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>16,936.66</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>16,612.50</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16,135.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>15,428.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>14,311.62</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>16936.66</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>14311.62</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>15885.062</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>2,609.76</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,711.33</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,923.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>3,129.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>3,117.19</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3,129.45</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,923.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2,711.33</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2,609.76</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3129.45</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>2609.76</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>2898.254</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>6,107.02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6,234.40</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6,395.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5,996.03</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>6,375.39</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5,996.03</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>6,395.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6,234.40</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6,107.02</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>6395.55</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>5996.03</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>6221.678</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>8,631.86</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>9,141.24</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10,535.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10,106.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>10,712.47</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10,106.24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>10,535.70</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9,141.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8,631.86</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>10712.47</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>8631.860000000001</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>9825.502</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>814.56</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,028.34</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,185.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,039.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,204.09</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,039.28</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,185.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,028.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>814.56</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2204.09</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>814.5599999999999</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1454.316</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>7,817.30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8,112.90</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9,350.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8,066.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>8,508.38</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8,066.96</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9,350.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8,112.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7,817.30</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>9350.389999999999</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>7817.3</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>8371.186</v>
       </c>
     </row>
     <row r="17">
@@ -971,37 +849,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,953.74</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2,041.80</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2,220.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2,032.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,590.81</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2,032.32</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2,220.72</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2,041.80</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,953.74</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>2220.72</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1590.81</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>1967.878</v>
       </c>
     </row>
     <row r="18">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>5,863.56</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6,071.10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7,129.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>6,034.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>6,917.57</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6,034.64</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>7,129.67</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6,071.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5,863.56</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>7129.67</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>5863.56</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>6403.308</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>5,863.56</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6,071.10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7,129.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6,034.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>6,917.57</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>6,034.64</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7,129.67</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6,071.10</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5,863.56</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>7129.67</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>5863.56</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>6403.308</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>616.35</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>616.80</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>617.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>618.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>618.65</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>618.05</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>617.31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>616.80</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>616.35</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>618.65</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>616.35</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>617.432</v>
       </c>
     </row>
     <row r="21"/>
@@ -1151,37 +993,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>22.37</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>19.54</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>19.69</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>19.03</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>20.748</v>
       </c>
     </row>
     <row r="26">
@@ -1192,37 +1025,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>22.23</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19.40</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>22.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>20.616</v>
       </c>
     </row>
     <row r="27"/>
@@ -1241,37 +1065,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>19.03</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>22.37</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>19.54</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>23.11</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>19.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>19.03</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>20.748</v>
       </c>
     </row>
     <row r="30">
@@ -1282,37 +1097,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>22.23</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>19.40</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>22.96</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>18.92</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>20.616</v>
       </c>
     </row>
     <row r="31"/>
@@ -1331,37 +1137,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>16,756.74</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>15,893.01</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15,127.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>16,211.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>15,466.23</t>
         </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>16,211.34</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>15,127.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>15,893.01</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>16,756.74</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>16756.74</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>15127.12</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>15890.888</v>
       </c>
     </row>
     <row r="34">
@@ -1372,37 +1169,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>3,441.25</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3,526.87</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3,247.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>3,552.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>3,612.47</t>
         </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3,552.98</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>3,247.47</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>3,526.87</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3,441.25</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>3612.47</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>3247.47</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>3476.208</v>
       </c>
     </row>
     <row r="35">
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>1.44</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>1.544</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.342</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>1.84</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="38"/>
@@ -1568,37 +1329,28 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>202312</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>202403</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>202406</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>202409</t>
         </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>202406</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>202403</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>202312</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>202309</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>202409</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>202309</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>202367.8</v>
       </c>
     </row>
   </sheetData>
